--- a/Entregables/Cuadro comparativo de proveedores.xlsx
+++ b/Entregables/Cuadro comparativo de proveedores.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crack\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyecto_Py\Cetaf_Python_Uikit_V1\Entregables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BCEBC1-55E6-4B1A-A7C2-3D649635DE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Proveedor</t>
   </si>
@@ -114,12 +124,21 @@
   </si>
   <si>
     <t>Precio mas alto</t>
+  </si>
+  <si>
+    <t>Sistema Operativo</t>
+  </si>
+  <si>
+    <t>Ubuntu Server</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,22 +149,19 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Ubuntu Light"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF1E1E1E"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Ubuntu Light"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,12 +171,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,11 +229,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -233,33 +244,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,27 +550,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,134 +600,150 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>3565000</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <v>1890000</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="6">
         <v>1948000</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="6">
         <v>3021000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:9" ht="66" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="8">
         <v>9997000</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>8945000</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="6">
         <v>7078000</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="6">
         <v>6113000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:9" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>3332100</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <v>4675000</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="6">
         <v>2913000</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="6">
         <v>2319000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C7" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
         <f>MIN(C4,C5,C6,E4,E5,E6,G4,G5,G6,I4,I5,I6)</f>
         <v>1890000</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="6">
         <f>AVERAGE(C4,C5,C6,E4,E5,E6,G4,G5,G6,I4,I5,I6)</f>
         <v>4649675</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <f>MAX(C4,C6,C5,E4,E5,E6,G4,G5,G6,I4,I5,I6)</f>
         <v>9997000</v>
       </c>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>

--- a/Entregables/Cuadro comparativo de proveedores.xlsx
+++ b/Entregables/Cuadro comparativo de proveedores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyecto_Py\Cetaf_Python_Uikit_V1\Entregables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BCEBC1-55E6-4B1A-A7C2-3D649635DE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D03EDC-601C-4358-ACC5-634189A8E20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,7 +129,7 @@
     <t>Sistema Operativo</t>
   </si>
   <si>
-    <t>Ubuntu Server</t>
+    <t>CentOS</t>
   </si>
 </sst>
 </file>
@@ -137,7 +137,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -231,26 +231,20 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -263,7 +257,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -554,184 +554,184 @@
   <dimension ref="A2:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="36.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="20.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>3565000</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>1890000</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>1948000</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4">
         <v>3021000</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="66" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>9997000</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>8945000</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>7078000</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <v>6113000</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>3332100</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>4675000</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>2913000</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <v>2319000</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C7" s="9"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <f>MIN(C4,C5,C6,E4,E5,E6,G4,G5,G6,I4,I5,I6)</f>
         <v>1890000</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <f>AVERAGE(C4,C5,C6,E4,E5,E6,G4,G5,G6,I4,I5,I6)</f>
         <v>4649675</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <f>MAX(C4,C6,C5,E4,E5,E6,G4,G5,G6,I4,I5,I6)</f>
         <v>9997000</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
